--- a/QQ_lt.xlsx
+++ b/QQ_lt.xlsx
@@ -551,7 +551,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.2772173010744155</v>
+        <v>0.2772173010744154</v>
       </c>
     </row>
     <row r="40">
@@ -586,7 +586,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.4115090449340642</v>
+        <v>-0.4115090449340641</v>
       </c>
     </row>
     <row r="47">
@@ -781,7 +781,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.1199683290906251</v>
+        <v>-0.119968329090625</v>
       </c>
     </row>
     <row r="86">
@@ -806,7 +806,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.2329228450544179</v>
+        <v>-0.2329228450544178</v>
       </c>
     </row>
     <row r="91">
@@ -861,7 +861,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.5331454011611641</v>
+        <v>-0.533145401161164</v>
       </c>
     </row>
     <row r="102">
@@ -981,7 +981,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.1270574582740665</v>
+        <v>-0.1270574582740664</v>
       </c>
     </row>
     <row r="126">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.2321884860284627</v>
+        <v>0.2321884860284626</v>
       </c>
     </row>
     <row r="130">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.1299459114670754</v>
+        <v>0.1299459114670753</v>
       </c>
     </row>
     <row r="165">
@@ -1206,7 +1206,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>-0.2545693432912231</v>
+        <v>-0.254569343291223</v>
       </c>
     </row>
     <row r="171">
@@ -1256,7 +1256,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.7254998753778637</v>
+        <v>0.7254998753778636</v>
       </c>
     </row>
     <row r="181">
@@ -1291,7 +1291,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.2189676864072681</v>
+        <v>-0.218967686407268</v>
       </c>
     </row>
     <row r="188">
@@ -1341,7 +1341,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.4162691598758102</v>
+        <v>0.4162691598758101</v>
       </c>
     </row>
     <row r="198">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.5427835294976831</v>
+        <v>-0.542783529497683</v>
       </c>
     </row>
     <row r="230">
@@ -1566,7 +1566,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.6923636225983501</v>
+        <v>0.69236362259835</v>
       </c>
     </row>
     <row r="243">
@@ -1746,7 +1746,7 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>-0.4504803591407836</v>
+        <v>-0.4504803591407835</v>
       </c>
     </row>
     <row r="279">
@@ -1756,7 +1756,7 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>-0.03582344157621265</v>
+        <v>-0.03582344157621264</v>
       </c>
     </row>
     <row r="281">
@@ -1801,7 +1801,7 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.8504981803707779</v>
+        <v>0.8504981803707778</v>
       </c>
     </row>
     <row r="290">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.9108833502978087</v>
+        <v>0.9108833502978086</v>
       </c>
     </row>
     <row r="306">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="349">
       <c r="A349">
-        <v>0.9156580744311214</v>
+        <v>0.9156580744311213</v>
       </c>
     </row>
     <row r="350">
@@ -2316,7 +2316,7 @@
     </row>
     <row r="392">
       <c r="A392">
-        <v>-0.463970163371414</v>
+        <v>-0.4639701633714139</v>
       </c>
     </row>
     <row r="393">
@@ -2486,7 +2486,7 @@
     </row>
     <row r="426">
       <c r="A426">
-        <v>-0.9838916589505971</v>
+        <v>-0.983891658950597</v>
       </c>
     </row>
     <row r="427">
@@ -2496,7 +2496,7 @@
     </row>
     <row r="428">
       <c r="A428">
-        <v>0.4000919009558857</v>
+        <v>0.4000919009558856</v>
       </c>
     </row>
     <row r="429">
@@ -2601,7 +2601,7 @@
     </row>
     <row r="449">
       <c r="A449">
-        <v>-0.7167131719179452</v>
+        <v>-0.7167131719179451</v>
       </c>
     </row>
     <row r="450">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="510">
       <c r="A510">
-        <v>0.8393978863023222</v>
+        <v>0.8393978863023221</v>
       </c>
     </row>
     <row r="511">
@@ -2986,7 +2986,7 @@
     </row>
     <row r="526">
       <c r="A526">
-        <v>-0.2523361118510366</v>
+        <v>-0.2523361118510365</v>
       </c>
     </row>
     <row r="527">
@@ -3006,7 +3006,7 @@
     </row>
     <row r="530">
       <c r="A530">
-        <v>0.8018191321752966</v>
+        <v>0.8018191321752965</v>
       </c>
     </row>
     <row r="531">
@@ -3096,7 +3096,7 @@
     </row>
     <row r="548">
       <c r="A548">
-        <v>-0.2514179502613843</v>
+        <v>-0.2514179502613842</v>
       </c>
     </row>
     <row r="549">
@@ -3516,7 +3516,7 @@
     </row>
     <row r="632">
       <c r="A632">
-        <v>-0.2988267033360899</v>
+        <v>-0.2988267033360898</v>
       </c>
     </row>
     <row r="633">
@@ -3611,7 +3611,7 @@
     </row>
     <row r="651">
       <c r="A651">
-        <v>0.7088043056428433</v>
+        <v>0.7088043056428432</v>
       </c>
     </row>
     <row r="652">
@@ -3631,12 +3631,12 @@
     </row>
     <row r="655">
       <c r="A655">
-        <v>-0.297087689395994</v>
+        <v>-0.2970876893959939</v>
       </c>
     </row>
     <row r="656">
       <c r="A656">
-        <v>0.8593066181056202</v>
+        <v>0.8593066181056201</v>
       </c>
     </row>
     <row r="657">
@@ -3721,7 +3721,7 @@
     </row>
     <row r="673">
       <c r="A673">
-        <v>0.2564672813750804</v>
+        <v>0.2564672813750803</v>
       </c>
     </row>
     <row r="674">
@@ -3801,7 +3801,7 @@
     </row>
     <row r="689">
       <c r="A689">
-        <v>-0.02111157681792975</v>
+        <v>-0.02111157681792974</v>
       </c>
     </row>
     <row r="690">
@@ -3831,7 +3831,7 @@
     </row>
     <row r="695">
       <c r="A695">
-        <v>-0.9265443529002369</v>
+        <v>-0.9265443529002368</v>
       </c>
     </row>
     <row r="696">
@@ -3931,7 +3931,7 @@
     </row>
     <row r="715">
       <c r="A715">
-        <v>0.01488772220909596</v>
+        <v>0.01488772220909595</v>
       </c>
     </row>
     <row r="716">
@@ -3976,7 +3976,7 @@
     </row>
     <row r="724">
       <c r="A724">
-        <v>0.7763230567798019</v>
+        <v>0.7763230567798018</v>
       </c>
     </row>
     <row r="725">
@@ -4146,7 +4146,7 @@
     </row>
     <row r="758">
       <c r="A758">
-        <v>-0.3822881006635726</v>
+        <v>-0.3822881006635725</v>
       </c>
     </row>
     <row r="759">
@@ -4196,12 +4196,12 @@
     </row>
     <row r="768">
       <c r="A768">
-        <v>0.3404557728208602</v>
+        <v>0.3404557728208601</v>
       </c>
     </row>
     <row r="769">
       <c r="A769">
-        <v>-0.7212823629379273</v>
+        <v>-0.7212823629379272</v>
       </c>
     </row>
     <row r="770">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="797">
       <c r="A797">
-        <v>-0.7645178060047329</v>
+        <v>-0.7645178060047328</v>
       </c>
     </row>
     <row r="798">
@@ -4371,22 +4371,22 @@
     </row>
     <row r="803">
       <c r="A803">
-        <v>-0.9346601134166122</v>
+        <v>-0.9346601134166121</v>
       </c>
     </row>
     <row r="804">
       <c r="A804">
-        <v>0.9528948543593288</v>
+        <v>0.9528948543593287</v>
       </c>
     </row>
     <row r="805">
       <c r="A805">
-        <v>0.3089833995327354</v>
+        <v>0.3089833995327353</v>
       </c>
     </row>
     <row r="806">
       <c r="A806">
-        <v>0.7234603082761169</v>
+        <v>0.7234603082761168</v>
       </c>
     </row>
     <row r="807">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="834">
       <c r="A834">
-        <v>0.0168842263519764</v>
+        <v>0.01688422635197639</v>
       </c>
     </row>
     <row r="835">
@@ -4631,7 +4631,7 @@
     </row>
     <row r="855">
       <c r="A855">
-        <v>-0.05501549737527967</v>
+        <v>-0.05501549737527966</v>
       </c>
     </row>
     <row r="856">
@@ -4666,7 +4666,7 @@
     </row>
     <row r="862">
       <c r="A862">
-        <v>-0.1265962421894074</v>
+        <v>-0.1265962421894073</v>
       </c>
     </row>
     <row r="863">
@@ -4716,7 +4716,7 @@
     </row>
     <row r="872">
       <c r="A872">
-        <v>-0.7463032878004015</v>
+        <v>-0.7463032878004014</v>
       </c>
     </row>
     <row r="873">
@@ -4876,7 +4876,7 @@
     </row>
     <row r="904">
       <c r="A904">
-        <v>-0.5645684245973826</v>
+        <v>-0.5645684245973825</v>
       </c>
     </row>
     <row r="905">
@@ -4986,7 +4986,7 @@
     </row>
     <row r="926">
       <c r="A926">
-        <v>0.5917797395959497</v>
+        <v>0.5917797395959496</v>
       </c>
     </row>
     <row r="927">
@@ -5066,7 +5066,7 @@
     </row>
     <row r="942">
       <c r="A942">
-        <v>-0.9566741543821991</v>
+        <v>-0.956674154382199</v>
       </c>
     </row>
     <row r="943">
@@ -5111,7 +5111,7 @@
     </row>
     <row r="951">
       <c r="A951">
-        <v>0.6763216382823885</v>
+        <v>0.6763216382823884</v>
       </c>
     </row>
     <row r="952">
